--- a/Technology/Software/Copart.xlsx
+++ b/Technology/Software/Copart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24527FD-E5ED-734F-AF1D-D17BC327FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC709F-CD76-1C48-8AA5-E9026F805866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1496,12 +1496,6 @@
     <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,6 +1509,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1570,7 +1570,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1708,12 +1708,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>47.384999999999998</v>
-    <v>27.68</v>
-    <v>1.1872</v>
-    <v>0.68</v>
-    <v>1.5028E-2</v>
-    <v>0.32</v>
-    <v>6.9670000000000001E-3</v>
+    <v>27.79</v>
+    <v>1.1889000000000001</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.5020000000000001E-3</v>
+    <v>1.22</v>
+    <v>2.613E-2</v>
     <v>USD</v>
     <v>Copart, Inc. is a provider of online auctions and vehicle remarketing services. The Company offers services to process and sell vehicles to dealers, dismantlers, rebuilders, exporters and to the general public. It sells vehicles on behalf of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals. It has approximately 250,000 vehicles available online every day with operations at over 200 locations in 11 countries, including the United States, Canada, the United Kingdom, Brazil, the Republic of Ireland, Germany, Finland, the United Arab Emirates, Oman, Bahrain and Spain. It provides vehicle sellers with a full range of services to process and sell vehicles primarily over the internet through its Virtual Bidding Third Generation internet auction-style sales technology, VB3. Vehicle sellers consist primarily of insurance companies, but also include banks, finance companies, charities, fleet operators and others.</v>
     <v>10200</v>
@@ -1721,25 +1721,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>46.195</v>
+    <v>47.32</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.98988144609</v>
+    <v>45239.965632661719</v>
     <v>0</v>
-    <v>45.52</v>
-    <v>44101230000</v>
+    <v>46.49</v>
+    <v>44830967615</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>45.61</v>
-    <v>47.261200000000002</v>
-    <v>45.25</v>
-    <v>45.93</v>
-    <v>46.25</v>
+    <v>46.851599999999998</v>
+    <v>48.692100000000003</v>
+    <v>46.62</v>
+    <v>46.69</v>
+    <v>47.91</v>
     <v>960183500</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>3259260</v>
-    <v>3626821</v>
+    <v>2874943</v>
+    <v>3542780</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1904,9 +1904,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13856,7 +13856,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13864,48 +13864,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="e" vm="1">
+    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-    </row>
-    <row r="2" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+    </row>
+    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>44101230000</v>
+        <v>44830967615</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>22413154389.17873</v>
+        <v>22329625033.592888</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
@@ -13946,10 +13946,10 @@
         <v>212</v>
       </c>
       <c r="M3" s="40"/>
-      <c r="N3" s="111" t="s">
+      <c r="N3" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="112"/>
+      <c r="O3" s="110"/>
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13983,23 +13983,23 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>19126665403.682789</v>
+        <v>19053146625.585026</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="54" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.5028E-2</v>
+        <v>1.5020000000000001E-3</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>250</v>
       </c>
       <c r="M4" s="40"/>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="114"/>
+      <c r="O4" s="112"/>
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14033,14 +14033,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>21370196403.682789</v>
+        <v>21296677625.585026</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="103" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>45.93</v>
+        <v>46.69</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>219</v>
@@ -14058,7 +14058,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <f>O20/F10</f>
-        <v>10.550533492822966</v>
+        <v>10.725111869617225</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>221</v>
@@ -14086,14 +14086,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>9.1037112594673647E-2</v>
+        <v>9.1284140363903296E-2</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>21.321925411509163</v>
+        <v>21.248572697601691</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>225</v>
@@ -14111,14 +14111,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>31.796128334534966</v>
+        <v>32.322254949531363</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="61">
         <f>F14/A3</f>
-        <v>2.1926826077186511E-2</v>
+        <v>2.1569911412673844E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>228</v>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="K7" s="68">
         <f>K6/K5-1</f>
-        <v>-0.53577345065296833</v>
+        <v>-0.54490099169840023</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>231</v>
@@ -14403,10 +14403,10 @@
       </c>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="114"/>
+      <c r="O13" s="112"/>
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="O14" s="87">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="O15" s="91" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1872</v>
+        <v>1.1889000000000001</v>
       </c>
       <c r="P15" s="40"/>
     </row>
@@ -14555,7 +14555,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.0984432000000004E-2</v>
+        <v>9.1232981000000019E-2</v>
       </c>
       <c r="P17" s="40"/>
     </row>
@@ -14573,10 +14573,10 @@
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
       <c r="M18" s="78"/>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="114"/>
+      <c r="O18" s="112"/>
       <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14585,11 +14585,11 @@
         <v>Software &amp; IT Services</v>
       </c>
       <c r="B19" s="104"/>
-      <c r="C19" s="115" cm="1">
+      <c r="C19" s="113" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D19" s="115"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="99"/>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="O20" s="100" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>44101230000</v>
+        <v>44830967615</v>
       </c>
       <c r="P20" s="40"/>
     </row>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>44221683000</v>
+        <v>44951420615</v>
       </c>
       <c r="P21" s="40"/>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>2.7238447709011888E-3</v>
+        <v>2.679626101956956E-3</v>
       </c>
       <c r="P22" s="40"/>
     </row>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99727615522909885</v>
+        <v>0.99732037389804307</v>
       </c>
       <c r="P23" s="40"/>
     </row>
@@ -14738,7 +14738,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="107">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1037112594673647E-2</v>
+        <v>9.1284140363903296E-2</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="40"/>

--- a/Technology/Software/Copart.xlsx
+++ b/Technology/Software/Copart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC709F-CD76-1C48-8AA5-E9026F805866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549668A-5A56-7C4F-9900-0F63179BFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -983,6 +986,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1066,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1111,65 +1120,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1178,23 +1130,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,7 +1226,178 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1212,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1273,249 +1466,267 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,6 +1764,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1570,7 +1782,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1582,6 +1794,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1707,13 +1920,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>47.384999999999998</v>
-    <v>27.79</v>
-    <v>1.1889000000000001</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.5020000000000001E-3</v>
-    <v>1.22</v>
-    <v>2.613E-2</v>
+    <v>51.53</v>
+    <v>29.614999999999998</v>
+    <v>1.2219</v>
+    <v>-0.09</v>
+    <v>-1.792E-3</v>
+    <v>0.3</v>
+    <v>5.9840000000000006E-3</v>
     <v>USD</v>
     <v>Copart, Inc. is a provider of online auctions and vehicle remarketing services. The Company offers services to process and sell vehicles to dealers, dismantlers, rebuilders, exporters and to the general public. It sells vehicles on behalf of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals. It has approximately 250,000 vehicles available online every day with operations at over 200 locations in 11 countries, including the United States, Canada, the United Kingdom, Brazil, the Republic of Ireland, Germany, Finland, the United Arab Emirates, Oman, Bahrain and Spain. It provides vehicle sellers with a full range of services to process and sell vehicles primarily over the internet through its Virtual Bidding Third Generation internet auction-style sales technology, VB3. Vehicle sellers consist primarily of insurance companies, but also include banks, finance companies, charities, fleet operators and others.</v>
     <v>10200</v>
@@ -1721,25 +1934,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>47.32</v>
+    <v>50.32</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.965632661719</v>
+    <v>45261.948569524997</v>
     <v>0</v>
-    <v>46.49</v>
-    <v>44830967615</v>
+    <v>49.55</v>
+    <v>48136400000</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>46.851599999999998</v>
-    <v>48.692100000000003</v>
-    <v>46.62</v>
-    <v>46.69</v>
-    <v>47.91</v>
-    <v>960183500</v>
+    <v>50.08</v>
+    <v>48.070099999999996</v>
+    <v>50.22</v>
+    <v>50.13</v>
+    <v>50.43</v>
+    <v>960231400</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>2874943</v>
-    <v>3542780</v>
+    <v>4463215</v>
+    <v>4386973</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1904,9 +2117,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2351,9 +2564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P125" sqref="P125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10002,7 +10215,10 @@
         <f>(O128/N128)-1</f>
         <v>0</v>
       </c>
-      <c r="P129" s="19"/>
+      <c r="P129" s="19">
+        <f>(P128/O128)-1</f>
+        <v>-7.9253875000000473E-3</v>
+      </c>
       <c r="Q129" s="19">
         <f>(Q128/P128)-1</f>
         <v>7.7349272961058091E-4</v>
@@ -13853,1743 +14069,1921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438136F6-5C89-C146-92E9-1D676960BAC7}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:18" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:18" s="114" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>44830967615</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>48136400000</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="92">
         <f>Financials!O8*0.01</f>
         <v>0.44890000000000002</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="92">
         <f>SUM(C11:E11)/3</f>
         <v>0.20876675849772716</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!K129:O129)</f>
-        <v>8.7650773789637697E-3</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="63">
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>1.3800632387308183E-3</v>
+      </c>
+      <c r="H3" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>22329625033.592888</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="96">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>24045126072.58493</v>
+      </c>
+      <c r="J3" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="101">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="109" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="40"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="O3" s="116"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>2243531000</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="93">
         <f>Financials!O17*0.01</f>
         <v>0.38420000000000004</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="93">
         <f>SUM(C13:E13)/3</f>
         <v>0.21249591708489554</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="69">
         <f>A5*(1+(5*G3))</f>
-        <v>1002263913.3775213</v>
-      </c>
-      <c r="H4" s="46" t="s">
+        <v>966857300.27907515</v>
+      </c>
+      <c r="H4" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="47">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>19053146625.585026</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="97">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>20218716983.502754</v>
+      </c>
+      <c r="J4" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="98" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.5020000000000001E-3</v>
-      </c>
-      <c r="L4" s="46" t="s">
+        <v>-1.792E-3</v>
+      </c>
+      <c r="L4" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="111" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="112"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" cm="1">
+      <c r="O4" s="118"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>960183500</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>960231400</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="49">
-        <f>Financials!O34*0.01</f>
-        <v>0.31990000000000002</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="93">
+        <f>F14</f>
+        <v>0.33181818181818185</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="43">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="93">
+        <f>SUM(C16:E16)/3</f>
         <v>0.40220468032528373</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="69">
         <f>Financials!O56</f>
         <v>2363984000</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="97">
         <f>I4+G5-G6</f>
-        <v>21296677625.585026</v>
-      </c>
-      <c r="J5" s="44" t="s">
+        <v>22462247983.502754</v>
+      </c>
+      <c r="J5" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="103" cm="1">
+      <c r="K5" s="102" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>46.69</v>
-      </c>
-      <c r="L5" s="42" t="s">
+        <v>50.13</v>
+      </c>
+      <c r="L5" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="82">
         <f>Financials!O21</f>
         <v>16688000</v>
       </c>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73">
         <f>O20/F10</f>
-        <v>10.725111869617225</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>11.515885167464115</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="43">
-        <f>Financials!O190</f>
-        <v>0.21903865029184513</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="93">
+        <f>F17</f>
+        <v>0.23133971291866029</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="93">
         <f>Financials!O33/Financials!O126</f>
         <v>0.20672290661785336</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="69">
         <f>Financials!O96+Financials!O105</f>
         <v>120453000</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="100">
         <f>N25</f>
-        <v>9.1284140363903296E-2</v>
-      </c>
-      <c r="J6" s="46" t="s">
+        <v>9.320509050563254E-2</v>
+      </c>
+      <c r="J6" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="103">
         <f>I5/G4</f>
-        <v>21.248572697601691</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>23.232226696761991</v>
+      </c>
+      <c r="L6" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="82">
         <f>Financials!O96</f>
         <v>21468000</v>
       </c>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>32.322254949531363</v>
-      </c>
-      <c r="B7" s="60" t="s">
+        <v>34.705407354001444</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="61">
-        <f>F14/A3</f>
-        <v>2.1569911412673844E-2</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="94">
+        <f>F15/A3</f>
+        <v>2.008874780831138E-2</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="95">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.18253868396188341</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="77">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.0117612869607043E-2</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="99">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.54490099169840023</v>
-      </c>
-      <c r="L7" s="69" t="s">
+        <v>-0.53656040900135671</v>
+      </c>
+      <c r="L7" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="82">
         <f>Financials!O105</f>
         <v>98985000</v>
       </c>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="71" t="s">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="84">
         <f>O5/(O6+O7)</f>
         <v>0.13854366433380655</v>
       </c>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44">
         <v>2020</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="44">
         <v>2021</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="44">
         <v>2022</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="45">
         <v>2023</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="105">
         <v>2024</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="106">
         <v>2025</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="106">
         <v>2026</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="106">
         <v>2027</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="107">
         <v>2028</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="82">
         <f>Financials!O25</f>
         <v>316587000</v>
       </c>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="47">
         <v>2205583000</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="47">
         <v>2692511000</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="47">
         <v>3500921000</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="48">
         <v>3869518000</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="47">
         <v>4180000000</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="47">
         <v>4580000000</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="47">
         <v>5006000000</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="47">
         <v>5927000000</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="48">
         <v>6423000000</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="36"/>
+      <c r="N10" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="82">
         <f>Financials!O24</f>
         <v>1554328000</v>
       </c>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.22077065338280177</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>0.30024389872501911</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>0.10528572338536057</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="38">
         <f t="shared" si="0"/>
         <v>8.0237900431009646E-2</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
         <v>9.5693779904306275E-2</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>9.3013100436681206E-2</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>0.18397922493008401</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="51">
         <f t="shared" si="0"/>
         <v>8.3684832124177433E-2</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="51">
         <f>SUM(F11:J11)/5</f>
         <v>0.10732176756525172</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="85">
         <f>O9/O10</f>
         <v>0.20368094765068892</v>
       </c>
-      <c r="P11" s="40"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="47">
         <v>699907000</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="47">
         <v>936495000</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="47">
         <v>1090130000</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="47">
         <v>1237741000</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="52">
         <v>1387000000</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="47">
         <v>1549000000</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="47">
         <v>1687000000</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="47">
         <v>1801000000</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="48">
         <v>2000000000</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="88" t="s">
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="85">
         <f>O8*(1-O11)</f>
         <v>0.11032495949129788</v>
       </c>
-      <c r="P12" s="40"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.33802776654612687</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="37">
         <f t="shared" si="1"/>
         <v>0.16405319836197729</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="37">
         <f t="shared" si="1"/>
         <v>0.13540678634658243</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="38">
         <f t="shared" si="1"/>
         <v>0.12058984876480627</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="37">
         <f t="shared" si="1"/>
         <v>0.11679884643114646</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="37">
         <f t="shared" si="1"/>
         <v>8.9089735313105267E-2</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="37">
         <f t="shared" si="1"/>
         <v>6.7575577949021914E-2</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="51">
         <f t="shared" si="1"/>
         <v>0.1104941699056079</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="51">
         <f>SUM(F13:J13)/5</f>
         <v>0.10090963567273756</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="111" t="s">
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="40"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="O13" s="118"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="40">
+        <f>B12/B10</f>
+        <v>0.31733423770495151</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.34781473501872417</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.31138377586926413</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.31986955481276996</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.33181818181818185</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.33820960698689956</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.33699560527367162</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.30386367470895898</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.31138097462245057</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="85">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B15" s="47">
         <v>330703635</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C15" s="47">
         <v>544796798</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D15" s="47">
         <v>852801528</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E15" s="47">
         <v>847574000</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F15" s="52">
         <v>967000000</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G15" s="47">
         <v>1122000000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H15" s="47">
         <v>1294000000</v>
       </c>
-      <c r="I14" s="80">
-        <v>1232000000</v>
-      </c>
-      <c r="J14" s="80">
-        <v>1444000000</v>
-      </c>
-      <c r="K14" s="82" t="s">
+      <c r="I15" s="47">
+        <v>1400000000</v>
+      </c>
+      <c r="J15" s="48">
+        <v>1600000000</v>
+      </c>
+      <c r="K15" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="87">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="86" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.2219</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.64738678484740575</v>
       </c>
-      <c r="D15" s="84">
-        <f t="shared" si="2"/>
+      <c r="D16" s="37">
+        <f t="shared" si="3"/>
         <v>0.56535708567068332</v>
       </c>
-      <c r="E15" s="84">
-        <f t="shared" si="2"/>
+      <c r="E16" s="37">
+        <f t="shared" si="3"/>
         <v>-6.1298295422378413E-3</v>
       </c>
-      <c r="F15" s="85">
-        <f t="shared" si="2"/>
+      <c r="F16" s="38">
+        <f t="shared" si="3"/>
         <v>0.14090333115456577</v>
       </c>
-      <c r="G15" s="84">
-        <f t="shared" si="2"/>
+      <c r="G16" s="37">
+        <f t="shared" si="3"/>
         <v>0.16028955532574973</v>
       </c>
-      <c r="H15" s="84">
-        <f t="shared" si="2"/>
+      <c r="H16" s="37">
+        <f t="shared" si="3"/>
         <v>0.15329768270944744</v>
       </c>
-      <c r="I15" s="84">
-        <f t="shared" si="2"/>
-        <v>-4.7913446676970617E-2</v>
-      </c>
-      <c r="J15" s="84">
-        <f t="shared" si="2"/>
-        <v>0.17207792207792205</v>
-      </c>
-      <c r="K15" s="86">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.11573100891814288</v>
-      </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="91" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1889000000000001</v>
-      </c>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="I16" s="37">
+        <f t="shared" si="3"/>
+        <v>8.1916537867078754E-2</v>
+      </c>
+      <c r="J16" s="51">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="K16" s="51">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.1358528499827969</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="85">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="40">
+        <f>B15/B10</f>
+        <v>0.14993932896653628</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.20233781700427594</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.24359347954438276</v>
+      </c>
+      <c r="E17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.21903865029184513</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.23133971291866029</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.24497816593886462</v>
+      </c>
+      <c r="H17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.25848981222532963</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.23620718744727517</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.24910477969796047</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="88">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.3162251000000001E-2</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B18" s="56">
         <v>0.20350188582136297</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C18" s="56">
         <v>0.21059121333639713</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D18" s="56">
         <v>0.21733026390326637</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E18" s="56">
         <v>0.18253868396188341</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="87">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="40"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="98">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.1232981000000019E-2</v>
-      </c>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="111" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="117" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="112"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="113" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2012</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="57" t="s">
+      <c r="O18" s="118"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="89">
         <f>O6+O7</f>
         <v>120453000</v>
       </c>
-      <c r="P19" s="40"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="89" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>48136400000</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="120" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2012</v>
+      </c>
+      <c r="E21" s="121"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="89">
+        <f>O19+O20</f>
+        <v>48256853000</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="119" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Copart, Inc. is a provider of online auctions and vehicle remarketing services. The Company offers services to process and sell vehicles to dealers, dismantlers, rebuilders, exporters and to the general public. It sells vehicles on behalf of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals. It has approximately 250,000 vehicles available online every day with operations at over 200 locations in 11 countries, including the United States, Canada, the United Kingdom, Brazil, the Republic of Ireland, Germany, Finland, the United Arab Emirates, Oman, Bahrain and Spain. It provides vehicle sellers with a full range of services to process and sell vehicles primarily over the internet through its Virtual Bidding Third Generation internet auction-style sales technology, VB3. Vehicle sellers consist primarily of insurance companies, but also include banks, finance companies, charities, fleet operators and others.</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="100" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>44830967615</v>
-      </c>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="100">
-        <f>O19+O20</f>
-        <v>44951420615</v>
-      </c>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="71" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="90">
         <f>(O19/O21)</f>
-        <v>2.679626101956956E-3</v>
-      </c>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="97" t="s">
+        <v>2.4960807121011393E-3</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="91">
         <f>O20/O21</f>
-        <v>0.99732037389804307</v>
-      </c>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="105" t="s">
+        <v>0.99750391928789883</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="107">
+      <c r="O24" s="110"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1284140363903296E-2</v>
-      </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
+        <v>9.320509050563254E-2</v>
+      </c>
+      <c r="O25" s="112"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="40"/>
-      <c r="P103" s="40"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="40"/>
-      <c r="P104" s="40"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="40"/>
-      <c r="P108" s="40"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="40"/>
-      <c r="P109" s="40"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="40"/>
-      <c r="P110" s="40"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15597,8 +15991,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:CPRT/explorer/revenue_proj" xr:uid="{E6353F23-2FC8-C54C-BDAC-9BE09EFA6DC1}"/>

--- a/Technology/Software/Copart.xlsx
+++ b/Technology/Software/Copart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549668A-5A56-7C4F-9900-0F63179BFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A612DB-24E0-B64A-9693-9B024A63E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1763,6 +1763,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1782,7 +1784,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1795,6 +1797,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1922,11 +1926,11 @@
     <v>Powered by Refinitiv</v>
     <v>51.53</v>
     <v>29.614999999999998</v>
-    <v>1.2219</v>
-    <v>-0.09</v>
-    <v>-1.792E-3</v>
-    <v>0.3</v>
-    <v>5.9840000000000006E-3</v>
+    <v>1.2242999999999999</v>
+    <v>-0.28999999999999998</v>
+    <v>-6.0819999999999997E-3</v>
+    <v>-0.04</v>
+    <v>-8.4409999999999997E-4</v>
     <v>USD</v>
     <v>Copart, Inc. is a provider of online auctions and vehicle remarketing services. The Company offers services to process and sell vehicles to dealers, dismantlers, rebuilders, exporters and to the general public. It sells vehicles on behalf of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals. It has approximately 250,000 vehicles available online every day with operations at over 200 locations in 11 countries, including the United States, Canada, the United Kingdom, Brazil, the Republic of Ireland, Germany, Finland, the United Arab Emirates, Oman, Bahrain and Spain. It provides vehicle sellers with a full range of services to process and sell vehicles primarily over the internet through its Virtual Bidding Third Generation internet auction-style sales technology, VB3. Vehicle sellers consist primarily of insurance companies, but also include banks, finance companies, charities, fleet operators and others.</v>
     <v>10200</v>
@@ -1934,25 +1938,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>50.32</v>
+    <v>47.63</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.948569524997</v>
+    <v>45268.986942928124</v>
     <v>0</v>
-    <v>49.55</v>
-    <v>48136400000</v>
+    <v>47.08</v>
+    <v>45505366046</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>50.08</v>
-    <v>48.070099999999996</v>
-    <v>50.22</v>
-    <v>50.13</v>
-    <v>50.43</v>
+    <v>47.21</v>
+    <v>45.638800000000003</v>
+    <v>47.68</v>
+    <v>47.39</v>
+    <v>47.35</v>
     <v>960231400</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>4463215</v>
-    <v>4386973</v>
+    <v>4750475</v>
+    <v>4570238</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2117,9 +2121,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2564,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P125" sqref="P125"/>
     </sheetView>
@@ -14072,7 +14076,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14121,7 +14125,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>48136400000</v>
+        <v>45505366046</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>201</v>
@@ -14141,15 +14145,15 @@
         <v>203</v>
       </c>
       <c r="G3" s="63">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>1.3800632387308183E-3</v>
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>4.3766314922118466E-3</v>
       </c>
       <c r="H3" s="62" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="96">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>24045126072.58493</v>
+        <v>23892092697.989071</v>
       </c>
       <c r="J3" s="64" t="s">
         <v>205</v>
@@ -14194,21 +14198,21 @@
       </c>
       <c r="G4" s="69">
         <f>A5*(1+(5*G3))</f>
-        <v>966857300.27907515</v>
+        <v>981244294.92525327</v>
       </c>
       <c r="H4" s="68" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="97">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>20218716983.502754</v>
+        <v>20084267077.103069</v>
       </c>
       <c r="J4" s="68" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="98" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.792E-3</v>
+        <v>-6.0819999999999997E-3</v>
       </c>
       <c r="L4" s="70" t="s">
         <v>250</v>
@@ -14253,14 +14257,14 @@
       </c>
       <c r="I5" s="97">
         <f>I4+G5-G6</f>
-        <v>22462247983.502754</v>
+        <v>22327798077.103069</v>
       </c>
       <c r="J5" s="68" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="102" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>50.13</v>
+        <v>47.39</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>219</v>
@@ -14280,7 +14284,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <f>O20/F10</f>
-        <v>11.515885167464115</v>
+        <v>10.886451207177034</v>
       </c>
       <c r="B6" s="67" t="s">
         <v>221</v>
@@ -14308,14 +14312,14 @@
       </c>
       <c r="I6" s="100">
         <f>N25</f>
-        <v>9.320509050563254E-2</v>
+        <v>9.3641957016098204E-2</v>
       </c>
       <c r="J6" s="68" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="103">
         <f>I5/G4</f>
-        <v>23.232226696761991</v>
+        <v>22.754576197361637</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>225</v>
@@ -14335,14 +14339,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>34.705407354001444</v>
+        <v>32.808483090122564</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="94">
         <f>F15/A3</f>
-        <v>2.008874780831138E-2</v>
+        <v>2.1250241103928025E-2</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>228</v>
@@ -14369,7 +14373,7 @@
       </c>
       <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.53656040900135671</v>
+        <v>-0.51984435118460359</v>
       </c>
       <c r="L7" s="80" t="s">
         <v>231</v>
@@ -14696,7 +14700,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
@@ -14743,7 +14747,7 @@
       </c>
       <c r="O15" s="86" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.2219</v>
+        <v>1.2242999999999999</v>
       </c>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
@@ -14848,7 +14852,7 @@
       </c>
       <c r="O17" s="88">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.3162251000000001E-2</v>
+        <v>9.359779700000001E-2</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -14930,7 +14934,7 @@
       </c>
       <c r="O20" s="89" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>48136400000</v>
+        <v>45505366046</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -14960,7 +14964,7 @@
       </c>
       <c r="O21" s="89">
         <f>O19+O20</f>
-        <v>48256853000</v>
+        <v>45625819046</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
@@ -14988,7 +14992,7 @@
       </c>
       <c r="O22" s="90">
         <f>(O19/O21)</f>
-        <v>2.4960807121011393E-3</v>
+        <v>2.6400183606251353E-3</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
@@ -15013,7 +15017,7 @@
       </c>
       <c r="O23" s="91">
         <f>O20/O21</f>
-        <v>0.99750391928789883</v>
+        <v>0.99735998163937489</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
@@ -15057,7 +15061,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.320509050563254E-2</v>
+        <v>9.3641957016098204E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="34"/>
